--- a/docuemtnos/NEW.xlsx
+++ b/docuemtnos/NEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zend\Apache24\htdocs\pma-desarrollo\docuemtnos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B842484-C6E9-4A80-B151-DDE505BDA84C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FAF756-4680-4833-AD48-96782E94AA8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-5160" windowWidth="25440" windowHeight="15390" xr2:uid="{B9165BA0-DF76-45D7-84CC-C1D175216543}"/>
   </bookViews>
@@ -585,7 +585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5364A891-0386-42A4-967D-38D7F9304D70}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
